--- a/Диплом данные.xlsx
+++ b/Диплом данные.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsplaygroundbeats/Documents/VSCODE_PROJECTS/vector_database_diploma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C80364-B31E-6F4C-AD8C-8FB3DB731AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241533E-84AC-044B-BF03-22BB3745ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{D3B4A8F4-16D8-8846-8995-2B06AE6E18AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D3B4A8F4-16D8-8846-8995-2B06AE6E18AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$4:$B$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$4:$C$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="576">
   <si>
     <t>Цвет волос</t>
   </si>
@@ -1839,6 +1844,943 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение по расам</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F05F-B044-B34C-4C34D2C71888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F05F-B044-B34C-4C34D2C71888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1959746896"/>
+        <c:axId val="2008374112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959746896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008374112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2008374112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959746896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A54618B-89B2-7F1B-B2CC-E35460CABF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2141,8 +3083,8 @@
   <dimension ref="A1:L499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="A1:L499"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K499" sqref="K499:L499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2154,7 +3096,7 @@
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
@@ -16187,653 +17129,5001 @@
       <c r="A370" t="s">
         <v>394</v>
       </c>
+      <c r="B370" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F370">
+        <v>18</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L370" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>395</v>
       </c>
+      <c r="B371" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F371">
+        <v>27</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L371" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>396</v>
       </c>
+      <c r="B372" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F372">
+        <v>46</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K372" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L372" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>397</v>
       </c>
+      <c r="B373" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F373">
+        <v>32</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K373" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L373" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>398</v>
       </c>
+      <c r="B374" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F374">
+        <v>30</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>399</v>
       </c>
+      <c r="B375" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F375">
+        <v>24</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>400</v>
       </c>
+      <c r="B376" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F376">
+        <v>36</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>401</v>
       </c>
+      <c r="B377" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F377">
+        <v>23</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>402</v>
       </c>
+      <c r="B378" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F378">
+        <v>28</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>403</v>
       </c>
+      <c r="B379" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F379">
+        <v>19</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>404</v>
       </c>
+      <c r="B380" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F380">
+        <v>34</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K380" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>405</v>
       </c>
+      <c r="B381" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F381">
+        <v>32</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>406</v>
       </c>
+      <c r="B382" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F382">
+        <v>25</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>407</v>
       </c>
+      <c r="B383" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F383">
+        <v>22</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B384" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F384">
+        <v>38</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K384" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B385" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F385">
+        <v>23</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B386" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F386">
+        <v>28</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B387" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F387">
+        <v>31</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B388" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F388">
+        <v>24</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B389" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F389">
+        <v>32</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B390" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F390">
+        <v>23</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L390" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B391" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F391">
+        <v>32</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L391" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B392" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F392">
+        <v>24</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B393" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F393">
+        <v>22</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B394" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F394">
+        <v>19</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F395">
+        <v>26</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F396">
+        <v>37</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L396" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B397" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F397">
+        <v>25</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B398" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F398">
+        <v>32</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B399" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F399">
+        <v>27</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B400" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F400">
+        <v>19</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B401" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F401">
+        <v>25</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K401" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B402" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F402">
+        <v>22</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L402" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B403" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F403">
+        <v>22</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L403" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B404" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F404">
+        <v>57</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L404" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B405" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F405">
+        <v>18</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L405" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B406" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F406">
+        <v>46</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L406" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B407" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F407">
+        <v>33</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L407" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B408" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F408">
+        <v>27</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B409" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F409">
+        <v>29</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B410" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F410">
+        <v>27</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B411" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F411">
+        <v>57</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B412" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F412">
+        <v>31</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B413" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F413">
+        <v>36</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B414" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F414">
+        <v>31</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B415" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F415">
+        <v>46</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B416" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F416">
+        <v>37</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B417" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F417">
+        <v>31</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B418" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F418">
+        <v>56</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B419" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F419">
+        <v>28</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B420" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F420">
+        <v>53</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B421" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F421">
+        <v>21</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B422" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F422">
+        <v>26</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B423" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F423">
+        <v>22</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B424" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F424">
+        <v>26</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B425" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F425">
+        <v>48</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B426" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F426">
+        <v>26</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B427" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F427">
+        <v>31</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B428" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F428">
+        <v>57</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B429" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F429">
+        <v>35</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B430" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F430">
+        <v>57</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B431" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F431">
+        <v>36</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B432" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F432">
+        <v>48</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B433" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F433">
+        <v>31</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B434" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F434">
+        <v>27</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B435" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F435">
+        <v>59</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B436" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F436">
+        <v>32</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B437" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F437">
+        <v>29</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B438" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F438">
+        <v>31</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B439" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F439">
+        <v>50</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B440" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F440">
+        <v>40</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B441" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F441">
+        <v>24</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B442" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F442">
+        <v>31</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B443" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F443">
+        <v>33</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B444" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F444">
+        <v>26</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B445" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F445">
+        <v>30</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B446" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F446">
+        <v>27</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B447" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F447">
+        <v>28</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F448">
+        <v>24</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B449" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F449">
+        <v>23</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B450" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F450">
+        <v>56</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B451" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F451">
+        <v>22</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B452" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F452">
+        <v>26</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B453" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F453">
+        <v>28</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B454" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F454">
+        <v>56</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B455" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F455">
+        <v>33</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B456" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F456">
+        <v>24</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B457" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F457">
+        <v>24</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B458" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F458">
+        <v>31</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B459" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F459">
+        <v>35</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B460" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F460">
+        <v>31</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B461" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F461">
+        <v>37</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B462" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F462">
+        <v>41</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B463" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F463">
+        <v>32</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B464" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F464">
+        <v>34</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B465" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F465">
+        <v>31</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B466" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F466">
+        <v>27</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B467" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F467">
+        <v>28</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B468" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F468">
+        <v>25</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B469" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F469">
+        <v>22</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B470" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F470">
+        <v>26</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B471" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F471">
+        <v>29</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B472" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F472">
+        <v>31</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B473" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F473">
+        <v>41</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B474" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F474">
+        <v>27</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B475" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F475">
+        <v>23</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B476" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F476">
+        <v>33</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B477" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F477">
+        <v>26</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B478" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F478">
+        <v>41</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B479" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F479">
+        <v>32</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B480" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F480">
+        <v>25</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B481" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F481">
+        <v>37</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B482" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F482">
+        <v>51</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B483" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F483">
+        <v>22</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B484" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F484">
+        <v>51</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B485" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F485">
+        <v>57</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B486" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F486">
+        <v>32</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B487" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F487">
+        <v>45</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B488" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F488">
+        <v>46</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B489" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F489">
+        <v>19</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B490" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F490">
+        <v>20</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B491" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F491">
+        <v>19</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B492" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F492">
+        <v>22</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B493" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F493">
+        <v>29</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B494" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F494">
+        <v>32</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B495" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F495">
+        <v>29</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B496" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F496">
+        <v>46</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B497" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F497">
+        <v>26</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B498" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F498">
+        <v>31</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>523</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F499">
+        <v>47</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827C85FA-4D2E-494E-86E4-6045BDCBF04B}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <f>COUNTIF(Лист1!B2:B391,"европиоидная")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>500-B4-B5-B6</f>
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>